--- a/WebMarketCompare/Services/StandardNaming/StandardNaming.xlsx
+++ b/WebMarketCompare/Services/StandardNaming/StandardNaming.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29608"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Руслан\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Project\WebApi\WebMarketCompare\Services\StandardNaming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3BA6EE0-ED2D-4E54-8987-45B1CEA02D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F530F2-A9C3-4B70-917B-60DA8D4F42CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{EDC5C472-71F8-47BE-934D-87159058AD59}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{EDC5C472-71F8-47BE-934D-87159058AD59}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,16 +27,17 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="170">
   <si>
     <t>Версия операционной системы</t>
   </si>
@@ -219,9 +219,6 @@
     <t>Диагональ экрана (дюйм)</t>
   </si>
   <si>
-    <t>Тип матрицы</t>
-  </si>
-  <si>
     <t>Макс. частота обновления, Гц</t>
   </si>
   <si>
@@ -550,16 +547,13 @@
   </si>
   <si>
     <t>Игровой монитор</t>
-  </si>
-  <si>
-    <t>Интерфейсы видео</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -954,28 +948,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA1AC45-4D71-4D1C-906F-6E6A0FE15DB3}">
-  <dimension ref="A1:B107"/>
+  <dimension ref="A1:B105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="42.5546875" customWidth="1"/>
+    <col min="1" max="1" width="42.58203125" customWidth="1"/>
     <col min="2" max="2" width="42.33203125" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -983,23 +977,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -1007,7 +1001,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>55</v>
       </c>
@@ -1015,15 +1009,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -1031,15 +1025,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1047,7 +1041,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
@@ -1055,7 +1049,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>54</v>
       </c>
@@ -1063,15 +1057,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
@@ -1079,7 +1073,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>59</v>
       </c>
@@ -1087,7 +1081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
@@ -1095,7 +1089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -1103,7 +1097,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>52</v>
       </c>
@@ -1111,7 +1105,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -1119,7 +1113,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -1127,15 +1121,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
@@ -1143,23 +1137,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
@@ -1167,7 +1161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
@@ -1175,7 +1169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
@@ -1183,7 +1177,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1191,23 +1185,23 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
         <v>53</v>
       </c>
@@ -1215,7 +1209,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
         <v>50</v>
       </c>
@@ -1223,7 +1217,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>51</v>
       </c>
@@ -1231,15 +1225,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
@@ -1247,7 +1241,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
         <v>29</v>
       </c>
@@ -1255,7 +1249,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
@@ -1263,7 +1257,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
         <v>45</v>
       </c>
@@ -1271,7 +1265,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
@@ -1279,7 +1273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
         <v>5</v>
       </c>
@@ -1287,7 +1281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1295,7 +1289,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
         <v>7</v>
       </c>
@@ -1303,247 +1297,247 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="B55" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="B61" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="B67" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
         <v>122</v>
       </c>
@@ -1551,281 +1545,265 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+    <row r="74" spans="1:2">
+      <c r="A74" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B75" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
+      <c r="B80" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B81" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
+      <c r="B89" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B90" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>39</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B52">
-    <sortCondition ref="A25:A52"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B51">
+    <sortCondition ref="A25:A51"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
